--- a/data/consolidado_leyes.xlsx
+++ b/data/consolidado_leyes.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lionel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B5CFCE-F797-425F-B22D-6804D700A135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1515" windowWidth="28230" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="prestaciones" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">prestaciones!$A$1:$G$232</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1284,8 +1286,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,6 +1312,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1365,10 +1374,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1378,9 +1388,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1657,19 +1671,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +1729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1738,7 +1752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1761,7 +1775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1784,7 +1798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1807,7 +1821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1830,7 +1844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1853,7 +1867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1876,7 +1890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1899,7 +1913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1922,7 +1936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1945,7 +1959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1968,7 +1982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1984,14 +1998,14 @@
       <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -2007,14 +2021,14 @@
       <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -2030,14 +2044,14 @@
       <c r="E16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -2053,14 +2067,14 @@
       <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -2076,14 +2090,14 @@
       <c r="E18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
@@ -2099,14 +2113,14 @@
       <c r="E19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="5">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
@@ -2122,14 +2136,14 @@
       <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -2145,14 +2159,14 @@
       <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -2168,14 +2182,14 @@
       <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -2191,14 +2205,14 @@
       <c r="E23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="5">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
@@ -2214,14 +2228,14 @@
       <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="5">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -2237,14 +2251,14 @@
       <c r="E25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="5">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -2260,14 +2274,14 @@
       <c r="E26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="5">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -2283,14 +2297,14 @@
       <c r="E27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="5">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
       <c r="A28" s="2" t="s">
         <v>67</v>
       </c>
@@ -2306,14 +2320,14 @@
       <c r="E28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="5">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
       <c r="A29" s="2" t="s">
         <v>69</v>
       </c>
@@ -2329,14 +2343,14 @@
       <c r="E29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="5">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
       <c r="A30" s="2" t="s">
         <v>71</v>
       </c>
@@ -2352,14 +2366,14 @@
       <c r="E30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="5">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -2375,14 +2389,14 @@
       <c r="E31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="5">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -2398,14 +2412,14 @@
       <c r="E32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="5">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -2421,14 +2435,14 @@
       <c r="E33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="5">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1">
       <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
@@ -2451,7 +2465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.75" thickBot="1">
       <c r="A35" s="2" t="s">
         <v>83</v>
       </c>
@@ -2474,7 +2488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1">
       <c r="A36" s="2" t="s">
         <v>84</v>
       </c>
@@ -2490,14 +2504,14 @@
       <c r="E36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="5">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1">
       <c r="A37" s="2" t="s">
         <v>89</v>
       </c>
@@ -2513,14 +2527,14 @@
       <c r="E37" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="5">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -2536,14 +2550,14 @@
       <c r="E38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="5">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15.75" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>93</v>
       </c>
@@ -2559,14 +2573,14 @@
       <c r="E39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="5">
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>94</v>
       </c>
@@ -2582,14 +2596,14 @@
       <c r="E40" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="5">
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15.75" thickBot="1">
       <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
@@ -2605,14 +2619,14 @@
       <c r="E41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="5">
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1">
       <c r="A42" s="2" t="s">
         <v>96</v>
       </c>
@@ -2628,14 +2642,14 @@
       <c r="E42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="5">
         <v>1</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1">
       <c r="A43" s="2" t="s">
         <v>97</v>
       </c>
@@ -2651,14 +2665,14 @@
       <c r="E43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="5">
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.75" thickBot="1">
       <c r="A44" s="2" t="s">
         <v>99</v>
       </c>
@@ -2674,14 +2688,14 @@
       <c r="E44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="5">
         <v>1</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15.75" thickBot="1">
       <c r="A45" s="2" t="s">
         <v>101</v>
       </c>
@@ -2697,14 +2711,14 @@
       <c r="E45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="5">
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1">
       <c r="A46" s="2" t="s">
         <v>103</v>
       </c>
@@ -2720,14 +2734,14 @@
       <c r="E46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="5">
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.75" thickBot="1">
       <c r="A47" s="2" t="s">
         <v>105</v>
       </c>
@@ -2743,14 +2757,14 @@
       <c r="E47" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="5">
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15.75" thickBot="1">
       <c r="A48" s="2" t="s">
         <v>107</v>
       </c>
@@ -2766,14 +2780,14 @@
       <c r="E48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="5">
         <v>1</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15.75" thickBot="1">
       <c r="A49" s="2" t="s">
         <v>109</v>
       </c>
@@ -2789,14 +2803,14 @@
       <c r="E49" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="5">
         <v>1</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1">
       <c r="A50" s="2" t="s">
         <v>111</v>
       </c>
@@ -2812,14 +2826,14 @@
       <c r="E50" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="5">
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15.75" thickBot="1">
       <c r="A51" s="2" t="s">
         <v>113</v>
       </c>
@@ -2835,14 +2849,14 @@
       <c r="E51" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="5">
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15.75" thickBot="1">
       <c r="A52" s="2" t="s">
         <v>114</v>
       </c>
@@ -2858,14 +2872,14 @@
       <c r="E52" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="5">
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15.75" thickBot="1">
       <c r="A53" s="2" t="s">
         <v>116</v>
       </c>
@@ -2881,14 +2895,14 @@
       <c r="E53" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="5">
         <v>1</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15.75" thickBot="1">
       <c r="A54" s="2" t="s">
         <v>117</v>
       </c>
@@ -2904,14 +2918,14 @@
       <c r="E54" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="5">
         <v>1</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15.75" thickBot="1">
       <c r="A55" s="2" t="s">
         <v>118</v>
       </c>
@@ -2927,14 +2941,14 @@
       <c r="E55" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="5">
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15.75" thickBot="1">
       <c r="A56" s="2" t="s">
         <v>119</v>
       </c>
@@ -2950,14 +2964,14 @@
       <c r="E56" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="5">
         <v>1</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15.75" thickBot="1">
       <c r="A57" s="2" t="s">
         <v>121</v>
       </c>
@@ -2973,14 +2987,14 @@
       <c r="E57" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="5">
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15.75" thickBot="1">
       <c r="A58" s="2" t="s">
         <v>123</v>
       </c>
@@ -2996,14 +3010,14 @@
       <c r="E58" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="5">
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15.75" thickBot="1">
       <c r="A59" s="2" t="s">
         <v>125</v>
       </c>
@@ -3019,14 +3033,14 @@
       <c r="E59" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="5">
         <v>1</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15.75" thickBot="1">
       <c r="A60" s="2" t="s">
         <v>127</v>
       </c>
@@ -3042,14 +3056,14 @@
       <c r="E60" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15.75" thickBot="1">
       <c r="A61" s="2" t="s">
         <v>129</v>
       </c>
@@ -3072,7 +3086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15.75" thickBot="1">
       <c r="A62" s="2" t="s">
         <v>133</v>
       </c>
@@ -3095,7 +3109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15.75" thickBot="1">
       <c r="A63" s="2" t="s">
         <v>134</v>
       </c>
@@ -3118,7 +3132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15.75" thickBot="1">
       <c r="A64" s="2" t="s">
         <v>136</v>
       </c>
@@ -3141,7 +3155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="15.75" thickBot="1">
       <c r="A65" s="2" t="s">
         <v>138</v>
       </c>
@@ -3164,7 +3178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="15.75" thickBot="1">
       <c r="A66" s="2" t="s">
         <v>140</v>
       </c>
@@ -3187,7 +3201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="15.75" thickBot="1">
       <c r="A67" s="2" t="s">
         <v>142</v>
       </c>
@@ -3210,7 +3224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="15.75" thickBot="1">
       <c r="A68" s="2" t="s">
         <v>144</v>
       </c>
@@ -3233,7 +3247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="15.75" thickBot="1">
       <c r="A69" s="2" t="s">
         <v>146</v>
       </c>
@@ -3256,7 +3270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15.75" thickBot="1">
       <c r="A70" s="2" t="s">
         <v>148</v>
       </c>
@@ -3279,7 +3293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="15.75" thickBot="1">
       <c r="A71" s="2" t="s">
         <v>150</v>
       </c>
@@ -3302,7 +3316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="15.75" thickBot="1">
       <c r="A72" s="2" t="s">
         <v>151</v>
       </c>
@@ -3325,7 +3339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="15.75" thickBot="1">
       <c r="A73" s="2" t="s">
         <v>155</v>
       </c>
@@ -3348,7 +3362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="15.75" thickBot="1">
       <c r="A74" s="2" t="s">
         <v>159</v>
       </c>
@@ -3364,14 +3378,14 @@
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="5">
         <v>1</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="15.75" thickBot="1">
       <c r="A75" s="2" t="s">
         <v>164</v>
       </c>
@@ -3387,14 +3401,14 @@
       <c r="E75" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="5">
         <v>1</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="15.75" thickBot="1">
       <c r="A76" s="2" t="s">
         <v>166</v>
       </c>
@@ -3410,14 +3424,14 @@
       <c r="E76" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="5">
         <v>1</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="15.75" thickBot="1">
       <c r="A77" s="2" t="s">
         <v>167</v>
       </c>
@@ -3433,14 +3447,14 @@
       <c r="E77" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="5">
         <v>1</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="15.75" thickBot="1">
       <c r="A78" s="2" t="s">
         <v>168</v>
       </c>
@@ -3456,14 +3470,14 @@
       <c r="E78" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="5">
         <v>1</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="15.75" thickBot="1">
       <c r="A79" s="2" t="s">
         <v>169</v>
       </c>
@@ -3479,14 +3493,14 @@
       <c r="E79" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="5">
         <v>1</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="15.75" thickBot="1">
       <c r="A80" s="2" t="s">
         <v>170</v>
       </c>
@@ -3502,14 +3516,14 @@
       <c r="E80" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="5">
         <v>1</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="15.75" thickBot="1">
       <c r="A81" s="2" t="s">
         <v>171</v>
       </c>
@@ -3525,14 +3539,14 @@
       <c r="E81" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="5">
         <v>1</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="15.75" thickBot="1">
       <c r="A82" s="2" t="s">
         <v>172</v>
       </c>
@@ -3548,14 +3562,14 @@
       <c r="E82" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="5">
         <v>1</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="15.75" thickBot="1">
       <c r="A83" s="2" t="s">
         <v>173</v>
       </c>
@@ -3571,14 +3585,14 @@
       <c r="E83" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="5">
         <v>1</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="15.75" thickBot="1">
       <c r="A84" s="2" t="s">
         <v>174</v>
       </c>
@@ -3594,14 +3608,14 @@
       <c r="E84" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="5">
         <v>1</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15.75" thickBot="1">
       <c r="A85" s="2" t="s">
         <v>175</v>
       </c>
@@ -3617,14 +3631,14 @@
       <c r="E85" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="5">
         <v>1</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="15.75" thickBot="1">
       <c r="A86" s="2" t="s">
         <v>176</v>
       </c>
@@ -3640,14 +3654,14 @@
       <c r="E86" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="5">
         <v>1</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="15.75" thickBot="1">
       <c r="A87" s="2" t="s">
         <v>176</v>
       </c>
@@ -3663,14 +3677,14 @@
       <c r="E87" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="5">
         <v>1</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="15.75" thickBot="1">
       <c r="A88" s="2" t="s">
         <v>177</v>
       </c>
@@ -3686,14 +3700,14 @@
       <c r="E88" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="5">
         <v>1</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="15.75" thickBot="1">
       <c r="A89" s="2" t="s">
         <v>177</v>
       </c>
@@ -3709,14 +3723,14 @@
       <c r="E89" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="5">
         <v>1</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="15.75" thickBot="1">
       <c r="A90" s="2" t="s">
         <v>178</v>
       </c>
@@ -3732,14 +3746,14 @@
       <c r="E90" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="5">
         <v>1</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="15.75" thickBot="1">
       <c r="A91" s="2" t="s">
         <v>179</v>
       </c>
@@ -3755,14 +3769,14 @@
       <c r="E91" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="5">
         <v>1</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="15.75" thickBot="1">
       <c r="A92" s="2" t="s">
         <v>180</v>
       </c>
@@ -3778,14 +3792,14 @@
       <c r="E92" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="5">
         <v>1</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="15.75" thickBot="1">
       <c r="A93" s="2" t="s">
         <v>180</v>
       </c>
@@ -3801,14 +3815,14 @@
       <c r="E93" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="5">
         <v>1</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="15.75" thickBot="1">
       <c r="A94" s="2" t="s">
         <v>181</v>
       </c>
@@ -3824,14 +3838,14 @@
       <c r="E94" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="5">
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="15.75" thickBot="1">
       <c r="A95" s="2" t="s">
         <v>182</v>
       </c>
@@ -3847,14 +3861,14 @@
       <c r="E95" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="5">
         <v>1</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="15.75" thickBot="1">
       <c r="A96" s="2" t="s">
         <v>183</v>
       </c>
@@ -3870,14 +3884,14 @@
       <c r="E96" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="5">
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="15.75" thickBot="1">
       <c r="A97" s="2" t="s">
         <v>184</v>
       </c>
@@ -3893,14 +3907,14 @@
       <c r="E97" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="5">
         <v>1</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="15.75" thickBot="1">
       <c r="A98" s="2" t="s">
         <v>185</v>
       </c>
@@ -3916,14 +3930,14 @@
       <c r="E98" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="5">
         <v>1</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="15.75" thickBot="1">
       <c r="A99" s="2" t="s">
         <v>185</v>
       </c>
@@ -3939,14 +3953,14 @@
       <c r="E99" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="5">
         <v>1</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="15.75" thickBot="1">
       <c r="A100" s="2" t="s">
         <v>185</v>
       </c>
@@ -3962,14 +3976,14 @@
       <c r="E100" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="5">
         <v>1</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="15.75" thickBot="1">
       <c r="A101" s="2" t="s">
         <v>186</v>
       </c>
@@ -3985,14 +3999,14 @@
       <c r="E101" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="5">
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="15.75" thickBot="1">
       <c r="A102" s="2" t="s">
         <v>187</v>
       </c>
@@ -4008,14 +4022,14 @@
       <c r="E102" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="5">
         <v>1</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="15.75" thickBot="1">
       <c r="A103" s="2" t="s">
         <v>188</v>
       </c>
@@ -4031,14 +4045,14 @@
       <c r="E103" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="5">
         <v>1</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="15.75" thickBot="1">
       <c r="A104" s="2" t="s">
         <v>188</v>
       </c>
@@ -4054,14 +4068,14 @@
       <c r="E104" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="5">
         <v>1</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="15.75" thickBot="1">
       <c r="A105" s="2" t="s">
         <v>189</v>
       </c>
@@ -4077,14 +4091,14 @@
       <c r="E105" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="5">
         <v>1</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="2" t="s">
         <v>190</v>
       </c>
@@ -4100,14 +4114,14 @@
       <c r="E106" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="5">
         <v>1</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="15.75" thickBot="1">
       <c r="A107" s="2" t="s">
         <v>191</v>
       </c>
@@ -4123,14 +4137,14 @@
       <c r="E107" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="5">
         <v>1</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="15.75" thickBot="1">
       <c r="A108" s="2" t="s">
         <v>191</v>
       </c>
@@ -4146,14 +4160,14 @@
       <c r="E108" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="5">
         <v>1</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15.75" thickBot="1">
       <c r="A109" s="2" t="s">
         <v>191</v>
       </c>
@@ -4169,14 +4183,14 @@
       <c r="E109" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="5">
         <v>1</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="15.75" thickBot="1">
       <c r="A110" s="2" t="s">
         <v>192</v>
       </c>
@@ -4199,7 +4213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="15.75" thickBot="1">
       <c r="A111" s="2" t="s">
         <v>195</v>
       </c>
@@ -4222,7 +4236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="15.75" thickBot="1">
       <c r="A112" s="2" t="s">
         <v>196</v>
       </c>
@@ -4245,7 +4259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="15.75" thickBot="1">
       <c r="A113" s="2" t="s">
         <v>198</v>
       </c>
@@ -4268,7 +4282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="15.75" thickBot="1">
       <c r="A114" s="2" t="s">
         <v>199</v>
       </c>
@@ -4284,14 +4298,14 @@
       <c r="E114" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="5">
         <v>1</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="15.75" thickBot="1">
       <c r="A115" s="2" t="s">
         <v>204</v>
       </c>
@@ -4307,14 +4321,14 @@
       <c r="E115" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="5">
         <v>1</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="15.75" thickBot="1">
       <c r="A116" s="2" t="s">
         <v>205</v>
       </c>
@@ -4330,14 +4344,14 @@
       <c r="E116" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="5">
         <v>1</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="15.75" thickBot="1">
       <c r="A117" s="2" t="s">
         <v>206</v>
       </c>
@@ -4353,14 +4367,14 @@
       <c r="E117" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="5">
         <v>1</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="15.75" thickBot="1">
       <c r="A118" s="2" t="s">
         <v>207</v>
       </c>
@@ -4376,14 +4390,14 @@
       <c r="E118" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="5">
         <v>1</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="15.75" thickBot="1">
       <c r="A119" s="2" t="s">
         <v>209</v>
       </c>
@@ -4399,14 +4413,14 @@
       <c r="E119" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="5">
         <v>1</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="15.75" thickBot="1">
       <c r="A120" s="2" t="s">
         <v>210</v>
       </c>
@@ -4422,14 +4436,14 @@
       <c r="E120" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="5">
         <v>1</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="15.75" thickBot="1">
       <c r="A121" s="2" t="s">
         <v>210</v>
       </c>
@@ -4445,14 +4459,14 @@
       <c r="E121" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="5">
         <v>1</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="15.75" thickBot="1">
       <c r="A122" s="2" t="s">
         <v>211</v>
       </c>
@@ -4475,7 +4489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="15.75" thickBot="1">
       <c r="A123" s="2" t="s">
         <v>212</v>
       </c>
@@ -4491,14 +4505,14 @@
       <c r="E123" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="5">
         <v>1</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="15.75" thickBot="1">
       <c r="A124" s="2" t="s">
         <v>213</v>
       </c>
@@ -4514,14 +4528,14 @@
       <c r="E124" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="5">
         <v>1</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="15.75" thickBot="1">
       <c r="A125" s="2" t="s">
         <v>214</v>
       </c>
@@ -4537,14 +4551,14 @@
       <c r="E125" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125" s="5">
         <v>1</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="15.75" thickBot="1">
       <c r="A126" s="2" t="s">
         <v>215</v>
       </c>
@@ -4560,14 +4574,14 @@
       <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="5">
         <v>1</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="15.75" thickBot="1">
       <c r="A127" s="2" t="s">
         <v>216</v>
       </c>
@@ -4583,14 +4597,14 @@
       <c r="E127" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="5">
         <v>1</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="15.75" thickBot="1">
       <c r="A128" s="2" t="s">
         <v>217</v>
       </c>
@@ -4606,14 +4620,14 @@
       <c r="E128" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="5">
         <v>1</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="15.75" thickBot="1">
       <c r="A129" s="2" t="s">
         <v>218</v>
       </c>
@@ -4629,14 +4643,14 @@
       <c r="E129" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="5">
         <v>1</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="15.75" thickBot="1">
       <c r="A130" s="2" t="s">
         <v>219</v>
       </c>
@@ -4652,14 +4666,14 @@
       <c r="E130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="5">
         <v>1</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="15.75" thickBot="1">
       <c r="A131" s="2" t="s">
         <v>220</v>
       </c>
@@ -4675,14 +4689,14 @@
       <c r="E131" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="5">
         <v>1</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="15.75" thickBot="1">
       <c r="A132" s="2" t="s">
         <v>221</v>
       </c>
@@ -4698,14 +4712,14 @@
       <c r="E132" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="5">
         <v>1</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="15.75" thickBot="1">
       <c r="A133" s="2" t="s">
         <v>222</v>
       </c>
@@ -4721,14 +4735,14 @@
       <c r="E133" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="5">
         <v>1</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="15.75" thickBot="1">
       <c r="A134" s="2" t="s">
         <v>223</v>
       </c>
@@ -4744,14 +4758,14 @@
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="5">
         <v>1</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="15.75" thickBot="1">
       <c r="A135" s="2" t="s">
         <v>224</v>
       </c>
@@ -4767,14 +4781,14 @@
       <c r="E135" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="5">
         <v>1</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="15.75" thickBot="1">
       <c r="A136" s="2" t="s">
         <v>225</v>
       </c>
@@ -4790,14 +4804,14 @@
       <c r="E136" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="5">
         <v>1</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="15.75" thickBot="1">
       <c r="A137" s="2" t="s">
         <v>231</v>
       </c>
@@ -4813,14 +4827,14 @@
       <c r="E137" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="5">
         <v>1</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="15.75" thickBot="1">
       <c r="A138" s="2" t="s">
         <v>233</v>
       </c>
@@ -4836,14 +4850,14 @@
       <c r="E138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="5">
         <v>1</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="15.75" thickBot="1">
       <c r="A139" s="2" t="s">
         <v>233</v>
       </c>
@@ -4859,14 +4873,14 @@
       <c r="E139" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="5">
         <v>1</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="15.75" thickBot="1">
       <c r="A140" s="2" t="s">
         <v>236</v>
       </c>
@@ -4889,7 +4903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="15.75" thickBot="1">
       <c r="A141" s="2" t="s">
         <v>238</v>
       </c>
@@ -4905,14 +4919,14 @@
       <c r="E141" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="5">
         <v>1</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="15.75" thickBot="1">
       <c r="A142" s="2" t="s">
         <v>239</v>
       </c>
@@ -4935,7 +4949,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="15.75" thickBot="1">
       <c r="A143" s="2" t="s">
         <v>241</v>
       </c>
@@ -4958,7 +4972,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="15.75" thickBot="1">
       <c r="A144" s="2" t="s">
         <v>243</v>
       </c>
@@ -4974,14 +4988,14 @@
       <c r="E144" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="5">
         <v>1</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="15.75" thickBot="1">
       <c r="A145" s="2" t="s">
         <v>244</v>
       </c>
@@ -4997,14 +5011,14 @@
       <c r="E145" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="5">
         <v>1</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="15.75" thickBot="1">
       <c r="A146" s="2" t="s">
         <v>245</v>
       </c>
@@ -5020,14 +5034,14 @@
       <c r="E146" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F146" s="5">
         <v>1</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="15.75" thickBot="1">
       <c r="A147" s="2" t="s">
         <v>246</v>
       </c>
@@ -5043,14 +5057,14 @@
       <c r="E147" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147" s="5">
         <v>1</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="15.75" thickBot="1">
       <c r="A148" s="2" t="s">
         <v>247</v>
       </c>
@@ -5066,14 +5080,14 @@
       <c r="E148" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148" s="5">
         <v>1</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="15.75" thickBot="1">
       <c r="A149" s="2" t="s">
         <v>248</v>
       </c>
@@ -5089,14 +5103,14 @@
       <c r="E149" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149" s="5">
         <v>1</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="15.75" thickBot="1">
       <c r="A150" s="2" t="s">
         <v>252</v>
       </c>
@@ -5119,7 +5133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="15.75" thickBot="1">
       <c r="A151" s="2" t="s">
         <v>257</v>
       </c>
@@ -5142,7 +5156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="15.75" thickBot="1">
       <c r="A152" s="2" t="s">
         <v>258</v>
       </c>
@@ -5165,7 +5179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="15.75" thickBot="1">
       <c r="A153" s="2" t="s">
         <v>262</v>
       </c>
@@ -5188,7 +5202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="15.75" thickBot="1">
       <c r="A154" s="2" t="s">
         <v>265</v>
       </c>
@@ -5204,14 +5218,14 @@
       <c r="E154" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F154" s="3">
+      <c r="F154" s="5">
         <v>0.7</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="15.75" thickBot="1">
       <c r="A155" s="2" t="s">
         <v>267</v>
       </c>
@@ -5234,7 +5248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="15.75" thickBot="1">
       <c r="A156" s="2" t="s">
         <v>268</v>
       </c>
@@ -5257,7 +5271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="15.75" thickBot="1">
       <c r="A157" s="2" t="s">
         <v>269</v>
       </c>
@@ -5280,7 +5294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="15.75" thickBot="1">
       <c r="A158" s="2" t="s">
         <v>270</v>
       </c>
@@ -5303,7 +5317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="15.75" thickBot="1">
       <c r="A159" s="2" t="s">
         <v>271</v>
       </c>
@@ -5326,7 +5340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="15.75" thickBot="1">
       <c r="A160" s="2" t="s">
         <v>272</v>
       </c>
@@ -5349,7 +5363,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="15.75" thickBot="1">
       <c r="A161" s="2" t="s">
         <v>274</v>
       </c>
@@ -5372,7 +5386,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="15.75" thickBot="1">
       <c r="A162" s="2" t="s">
         <v>275</v>
       </c>
@@ -5395,7 +5409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="15.75" thickBot="1">
       <c r="A163" s="2" t="s">
         <v>276</v>
       </c>
@@ -5418,7 +5432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="15.75" thickBot="1">
       <c r="A164" s="2" t="s">
         <v>277</v>
       </c>
@@ -5441,7 +5455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="15.75" thickBot="1">
       <c r="A165" s="2" t="s">
         <v>278</v>
       </c>
@@ -5464,7 +5478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="15.75" thickBot="1">
       <c r="A166" s="2" t="s">
         <v>279</v>
       </c>
@@ -5487,7 +5501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="15.75" thickBot="1">
       <c r="A167" s="2" t="s">
         <v>280</v>
       </c>
@@ -5503,14 +5517,14 @@
       <c r="E167" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F167" s="5">
         <v>1</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="15.75" thickBot="1">
       <c r="A168" s="2" t="s">
         <v>284</v>
       </c>
@@ -5526,14 +5540,14 @@
       <c r="E168" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F168" s="3">
+      <c r="F168" s="5">
         <v>1</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="15.75" thickBot="1">
       <c r="A169" s="2" t="s">
         <v>285</v>
       </c>
@@ -5556,7 +5570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="15.75" thickBot="1">
       <c r="A170" s="2" t="s">
         <v>288</v>
       </c>
@@ -5579,7 +5593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="15.75" thickBot="1">
       <c r="A171" s="2" t="s">
         <v>290</v>
       </c>
@@ -5602,7 +5616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="15.75" thickBot="1">
       <c r="A172" s="2" t="s">
         <v>291</v>
       </c>
@@ -5625,7 +5639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="15.75" thickBot="1">
       <c r="A173" s="2" t="s">
         <v>292</v>
       </c>
@@ -5648,7 +5662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="15.75" thickBot="1">
       <c r="A174" s="2" t="s">
         <v>293</v>
       </c>
@@ -5671,7 +5685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="15.75" thickBot="1">
       <c r="A175" s="2" t="s">
         <v>294</v>
       </c>
@@ -5694,7 +5708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="15.75" thickBot="1">
       <c r="A176" s="2" t="s">
         <v>295</v>
       </c>
@@ -5717,7 +5731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="15.75" thickBot="1">
       <c r="A177" s="2" t="s">
         <v>296</v>
       </c>
@@ -5740,7 +5754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="15.75" thickBot="1">
       <c r="A178" s="2" t="s">
         <v>297</v>
       </c>
@@ -5763,7 +5777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="15.75" thickBot="1">
       <c r="A179" s="2" t="s">
         <v>298</v>
       </c>
@@ -5786,7 +5800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="15.75" thickBot="1">
       <c r="A180" s="2" t="s">
         <v>299</v>
       </c>
@@ -5809,7 +5823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="15.75" thickBot="1">
       <c r="A181" s="2" t="s">
         <v>300</v>
       </c>
@@ -5832,7 +5846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="15.75" thickBot="1">
       <c r="A182" s="2" t="s">
         <v>301</v>
       </c>
@@ -5855,7 +5869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="15.75" thickBot="1">
       <c r="A183" s="2" t="s">
         <v>302</v>
       </c>
@@ -5878,7 +5892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="15.75" thickBot="1">
       <c r="A184" s="2" t="s">
         <v>304</v>
       </c>
@@ -5901,7 +5915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="15.75" thickBot="1">
       <c r="A185" s="2" t="s">
         <v>307</v>
       </c>
@@ -5924,7 +5938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="15.75" thickBot="1">
       <c r="A186" s="2" t="s">
         <v>311</v>
       </c>
@@ -5947,7 +5961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="15.75" thickBot="1">
       <c r="A187" s="2" t="s">
         <v>315</v>
       </c>
@@ -5963,14 +5977,14 @@
       <c r="E187" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F187" s="3">
+      <c r="F187" s="5">
         <v>1</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="15.75" thickBot="1">
       <c r="A188" s="2" t="s">
         <v>317</v>
       </c>
@@ -5993,7 +6007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="15.75" thickBot="1">
       <c r="A189" s="2" t="s">
         <v>318</v>
       </c>
@@ -6016,7 +6030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="15.75" thickBot="1">
       <c r="A190" s="2" t="s">
         <v>319</v>
       </c>
@@ -6039,7 +6053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="15.75" thickBot="1">
       <c r="A191" s="2" t="s">
         <v>320</v>
       </c>
@@ -6062,7 +6076,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="15.75" thickBot="1">
       <c r="A192" s="2" t="s">
         <v>322</v>
       </c>
@@ -6085,7 +6099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="15.75" thickBot="1">
       <c r="A193" s="2" t="s">
         <v>323</v>
       </c>
@@ -6108,7 +6122,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="15.75" thickBot="1">
       <c r="A194" s="2" t="s">
         <v>326</v>
       </c>
@@ -6131,7 +6145,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="15.75" thickBot="1">
       <c r="A195" s="2" t="s">
         <v>327</v>
       </c>
@@ -6154,7 +6168,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="15.75" thickBot="1">
       <c r="A196" s="2" t="s">
         <v>328</v>
       </c>
@@ -6177,7 +6191,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="15.75" thickBot="1">
       <c r="A197" s="2" t="s">
         <v>329</v>
       </c>
@@ -6200,7 +6214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="15.75" thickBot="1">
       <c r="A198" s="2" t="s">
         <v>333</v>
       </c>
@@ -6223,7 +6237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="15.75" thickBot="1">
       <c r="A199" s="2" t="s">
         <v>335</v>
       </c>
@@ -6246,7 +6260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="15.75" thickBot="1">
       <c r="A200" s="2" t="s">
         <v>336</v>
       </c>
@@ -6269,7 +6283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="15.75" thickBot="1">
       <c r="A201" s="2" t="s">
         <v>337</v>
       </c>
@@ -6292,7 +6306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="15.75" thickBot="1">
       <c r="A202" s="2" t="s">
         <v>338</v>
       </c>
@@ -6315,7 +6329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="15.75" thickBot="1">
       <c r="A203" s="2" t="s">
         <v>342</v>
       </c>
@@ -6338,7 +6352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="15.75" thickBot="1">
       <c r="A204" s="2" t="s">
         <v>342</v>
       </c>
@@ -6361,7 +6375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="15.75" thickBot="1">
       <c r="A205" s="2" t="s">
         <v>346</v>
       </c>
@@ -6384,7 +6398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="15.75" thickBot="1">
       <c r="A206" s="2" t="s">
         <v>348</v>
       </c>
@@ -6407,7 +6421,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="15.75" thickBot="1">
       <c r="A207" s="2" t="s">
         <v>350</v>
       </c>
@@ -6430,7 +6444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="15.75" thickBot="1">
       <c r="A208" s="2" t="s">
         <v>351</v>
       </c>
@@ -6453,7 +6467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="15.75" thickBot="1">
       <c r="A209" s="2" t="s">
         <v>352</v>
       </c>
@@ -6476,7 +6490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="15.75" thickBot="1">
       <c r="A210" s="2" t="s">
         <v>353</v>
       </c>
@@ -6499,7 +6513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="15.75" thickBot="1">
       <c r="A211" s="2" t="s">
         <v>354</v>
       </c>
@@ -6522,7 +6536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="15.75" thickBot="1">
       <c r="A212" s="2" t="s">
         <v>358</v>
       </c>
@@ -6538,14 +6552,14 @@
       <c r="E212" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F212" s="3">
+      <c r="F212" s="5">
         <v>1</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="15.75" thickBot="1">
       <c r="A213" s="2" t="s">
         <v>361</v>
       </c>
@@ -6561,14 +6575,14 @@
       <c r="E213" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F213" s="3">
+      <c r="F213" s="5">
         <v>1</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="15.75" thickBot="1">
       <c r="A214" s="2" t="s">
         <v>362</v>
       </c>
@@ -6584,14 +6598,14 @@
       <c r="E214" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F214" s="3">
+      <c r="F214" s="5">
         <v>1</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="15.75" thickBot="1">
       <c r="A215" s="2" t="s">
         <v>363</v>
       </c>
@@ -6607,14 +6621,14 @@
       <c r="E215" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F215" s="3">
+      <c r="F215" s="5">
         <v>1</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="409.6" thickBot="1">
       <c r="A216" s="4" t="s">
         <v>364</v>
       </c>
@@ -6637,7 +6651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="15.75" thickBot="1">
       <c r="A217" s="2" t="s">
         <v>365</v>
       </c>
@@ -6653,14 +6667,14 @@
       <c r="E217" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F217" s="3">
+      <c r="F217" s="5">
         <v>1</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="15.75" thickBot="1">
       <c r="A218" s="2" t="s">
         <v>368</v>
       </c>
@@ -6683,7 +6697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="15.75" thickBot="1">
       <c r="A219" s="2" t="s">
         <v>371</v>
       </c>
@@ -6699,14 +6713,14 @@
       <c r="E219" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F219" s="3">
+      <c r="F219" s="5">
         <v>1</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="15.75" thickBot="1">
       <c r="A220" s="2" t="s">
         <v>373</v>
       </c>
@@ -6729,7 +6743,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="15.75" thickBot="1">
       <c r="A221" s="2" t="s">
         <v>377</v>
       </c>
@@ -6752,7 +6766,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="15.75" thickBot="1">
       <c r="A222" s="2" t="s">
         <v>379</v>
       </c>
@@ -6775,7 +6789,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="15.75" thickBot="1">
       <c r="A223" s="2" t="s">
         <v>381</v>
       </c>
@@ -6798,7 +6812,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" ht="15.75" thickBot="1">
       <c r="A224" s="2" t="s">
         <v>383</v>
       </c>
@@ -6814,14 +6828,14 @@
       <c r="E224" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F224" s="3">
+      <c r="F224" s="5">
         <v>1</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="15.75" thickBot="1">
       <c r="A225" s="2" t="s">
         <v>384</v>
       </c>
@@ -6844,7 +6858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" ht="15.75" thickBot="1">
       <c r="A226" s="2" t="s">
         <v>385</v>
       </c>
@@ -6867,7 +6881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" ht="15.75" thickBot="1">
       <c r="A227" s="2" t="s">
         <v>386</v>
       </c>
@@ -6890,7 +6904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" ht="15.75" thickBot="1">
       <c r="A228" s="2" t="s">
         <v>387</v>
       </c>
@@ -6913,7 +6927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" ht="15.75" thickBot="1">
       <c r="A229" s="2" t="s">
         <v>387</v>
       </c>
@@ -6936,7 +6950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" ht="15.75" thickBot="1">
       <c r="A230" s="2" t="s">
         <v>388</v>
       </c>
@@ -6952,14 +6966,14 @@
       <c r="E230" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F230" s="3">
+      <c r="F230" s="5">
         <v>1</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" ht="15.75" thickBot="1">
       <c r="A231" s="2" t="s">
         <v>392</v>
       </c>
@@ -6982,7 +6996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" ht="15.75" thickBot="1">
       <c r="A232" s="2" t="s">
         <v>396</v>
       </c>
